--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sl. No</t>
   </si>
@@ -28,28 +28,13 @@
     <t>Total Amount (₹)</t>
   </si>
   <si>
-    <t>"6783b1f01825608601ba0857"</t>
-  </si>
-  <si>
-    <t>12/01/2025</t>
-  </si>
-  <si>
-    <t>"6764e7eb06e74ec98537f30d"</t>
-  </si>
-  <si>
-    <t>"678539cb7f6e041ad851e2e0"</t>
-  </si>
-  <si>
-    <t>13/01/2025</t>
-  </si>
-  <si>
-    <t>"67863d38ae5371396ffd5fff"</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>"6786449778370d0de78e3b02"</t>
+    <t>"678d33986169885de490a884"</t>
+  </si>
+  <si>
+    <t>19/01/2025</t>
+  </si>
+  <si>
+    <t>"675fedd43a12f6a371b86c03"</t>
   </si>
 </sst>
 </file>
@@ -430,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -469,58 +454,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>3830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>6804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>5767</v>
+        <v>2654</v>
       </c>
     </row>
   </sheetData>
